--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-02_beg.xlsx
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   "Chief Wei Yenwu has issued an order for the incumbent operations leader of the L.G.D. to step down and transfer all responsibilities to Superintendent Swire."
+    <t xml:space="preserve">[name="Ch'en"]   'Chief Wei Yenwu has issued an order for the incumbent operations leader of the L.G.D. to step down and transfer all responsibilities to Superintendent Swire.'
 </t>
   </si>
   <si>
@@ -728,7 +728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   If you can't, then just worry about your own job. Nothing good will come of you catching this hot potato, "Miss S."
+    <t xml:space="preserve">[name="Ch'en"]   If you can't, then just worry about your own job. Nothing good will come of you catching this hot potato, 'Miss S.'
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   I just gave it to her straight. Lungmen's casualties are heavy, and this is the "truth" that they're supposed to "know."
+    <t xml:space="preserve">[name="Ch'en"]   I just gave it to her straight. Lungmen's casualties are heavy, and this is the 'truth' that they're supposed to 'know.'
 </t>
   </si>
   <si>
